--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il1rapl1-Ptprs.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il1rapl1-Ptprs.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="H2">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45815071794157</v>
+        <v>1.908591666666666</v>
       </c>
       <c r="N2">
-        <v>1.45815071794157</v>
+        <v>5.725775</v>
       </c>
       <c r="O2">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="P2">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
       <c r="Q2">
-        <v>0.04806230275667373</v>
+        <v>0.06942374948055555</v>
       </c>
       <c r="R2">
-        <v>0.04806230275667373</v>
+        <v>0.6248137453249999</v>
       </c>
       <c r="S2">
-        <v>0.02433643133930232</v>
+        <v>0.02908012806830959</v>
       </c>
       <c r="T2">
-        <v>0.02433643133930232</v>
+        <v>0.0290801280683096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="H3">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.5090632873676</v>
+        <v>20.524797</v>
       </c>
       <c r="N3">
-        <v>20.5090632873676</v>
+        <v>61.574391</v>
       </c>
       <c r="O3">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="P3">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="Q3">
-        <v>0.6760020050360409</v>
+        <v>0.746575807677</v>
       </c>
       <c r="R3">
-        <v>0.6760020050360409</v>
+        <v>6.719182269092999</v>
       </c>
       <c r="S3">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
       <c r="T3">
-        <v>0.3422948014804789</v>
+        <v>0.3127246837341967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="H4">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.0354958259057</v>
+        <v>8.719214000000001</v>
       </c>
       <c r="N4">
-        <v>8.0354958259057</v>
+        <v>26.157642</v>
       </c>
       <c r="O4">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="P4">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="Q4">
-        <v>0.2648590632180065</v>
+        <v>0.3171555964406667</v>
       </c>
       <c r="R4">
-        <v>0.2648590632180065</v>
+        <v>2.854400367966</v>
       </c>
       <c r="S4">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
       <c r="T4">
-        <v>0.1341118514281324</v>
+        <v>0.132849715422802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="H5">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4321873696126</v>
+        <v>11.88286</v>
       </c>
       <c r="N5">
-        <v>11.4321873696126</v>
+        <v>35.64858</v>
       </c>
       <c r="O5">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="P5">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="Q5">
-        <v>0.3768178719583909</v>
+        <v>0.4322311105933334</v>
       </c>
       <c r="R5">
-        <v>0.3768178719583909</v>
+        <v>3.89007999534</v>
       </c>
       <c r="S5">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
       <c r="T5">
-        <v>0.1908023906961892</v>
+        <v>0.1810523941044453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="H6">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.63214732573411</v>
+        <v>1.641831</v>
       </c>
       <c r="N6">
-        <v>1.63214732573411</v>
+        <v>4.925493</v>
       </c>
       <c r="O6">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="P6">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="Q6">
-        <v>0.05379742844667416</v>
+        <v>0.059720508071</v>
       </c>
       <c r="R6">
-        <v>0.05379742844667416</v>
+        <v>0.5374845726390001</v>
       </c>
       <c r="S6">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
       <c r="T6">
-        <v>0.02724042229628126</v>
+        <v>0.02501564718130951</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0329611350632683</v>
+        <v>0.03637433333333333</v>
       </c>
       <c r="H7">
-        <v>0.0329611350632683</v>
+        <v>0.109123</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.84932930869</v>
+        <v>20.954868</v>
       </c>
       <c r="N7">
-        <v>16.84932930869</v>
+        <v>62.864604</v>
       </c>
       <c r="O7">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="P7">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="Q7">
-        <v>0.5553730190692162</v>
+        <v>0.7622193535880001</v>
       </c>
       <c r="R7">
-        <v>0.5553730190692162</v>
+        <v>6.859974182292</v>
       </c>
       <c r="S7">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
       <c r="T7">
-        <v>0.2812141027596159</v>
+        <v>0.3192774314889369</v>
       </c>
     </row>
   </sheetData>
